--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/RHODE_ISLAND_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/RHODE_ISLAND_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C5">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C7">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C22">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C24">
@@ -719,7 +719,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C26">
@@ -750,7 +750,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C28">
@@ -776,7 +776,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C30">
@@ -802,7 +802,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C32">
@@ -815,7 +815,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C33">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C45">
@@ -989,7 +989,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C46">
@@ -1015,7 +1015,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C48">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C50">
@@ -1072,7 +1072,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C52">
@@ -1191,7 +1191,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C60">
@@ -1235,7 +1235,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C63">
@@ -1357,7 +1357,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C72">
@@ -1409,7 +1409,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C76">
@@ -1466,7 +1466,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C80">
@@ -1479,7 +1479,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C81">
@@ -1808,7 +1808,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C104">
@@ -1930,41 +1930,6 @@
       </c>
       <c r="D112">
         <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/RHODE_ISLAND_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/RHODE_ISLAND_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Santiago Ihuitlán Plumas</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Xochitlán De Vicente Suárez</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1521,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -1534,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1547,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1609,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -1653,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1666,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1697,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1710,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -1723,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1754,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -1767,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -1780,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1793,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -1806,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1819,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1832,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1845,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1876,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1907,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
